--- a/data/2011 IP MASTERLIST.xlsx
+++ b/data/2011 IP MASTERLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045639FF-AC6F-4395-9B03-9E02680E934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01E89A1-1B6C-482B-839E-69FE12B479DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>A Method for Producing A Smoked Meat Product</t>
   </si>
   <si>
-    <t xml:space="preserve">Maddul, Sonywright B., Balauro, Sherilyn G., Garambas, Cynthia G. </t>
-  </si>
-  <si>
     <t>Public Domain</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t xml:space="preserve">An Acceptable Composition for Preparing Instant Ginger Tea Beverage </t>
   </si>
   <si>
-    <t xml:space="preserve">Quindara, Hilda L., Botangen, Esther T. </t>
-  </si>
-  <si>
     <t>2011-D-03</t>
   </si>
   <si>
@@ -433,6 +427,12 @@
   </si>
   <si>
     <t>Ims</t>
+  </si>
+  <si>
+    <t>Sonywright B. Maddul, Sherilyn G.  Balauro, Cynthia G. Garambas</t>
+  </si>
+  <si>
+    <t>Hilda L. Quindara, Esther T. Botangen</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     <numFmt numFmtId="165" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -457,11 +457,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -532,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -583,43 +578,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -635,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,22 +635,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -702,7 +660,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,22 +679,13 @@
     <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,9 +911,9 @@
   </sheetPr>
   <dimension ref="A1:J885"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1377,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="8" t="s">
@@ -4120,7 +4069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5099,10 +5048,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5117,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
@@ -5151,49 +5100,67 @@
       </c>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="54"/>
+    <row r="2" spans="1:14" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="26">
+        <v>22011000665</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
-        <v>125</v>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="26">
-        <v>22011000665</v>
+        <v>22011000684</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>119</v>
@@ -5201,86 +5168,49 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="26">
-        <v>22011000684</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="27"/>
+        <v>12011000436</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>119</v>
-      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="26">
-        <v>12011000436</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" s="45" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" s="36"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="36"/>
+    <row r="5" spans="1:14" s="45" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="36"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:L2"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
